--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdai1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdai1\GIT\conflict_based_search\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED1E1AB-13A3-473E-9F1F-40E8704C7572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E034B-BB54-4B31-9E71-829C94C03384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8715" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="agents" sheetId="5" r:id="rId1"/>
+    <sheet name="agents" sheetId="6" r:id="rId1"/>
     <sheet name="map" sheetId="1" r:id="rId2"/>
     <sheet name="name" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="39">
   <si>
     <t>.</t>
     <phoneticPr fontId="1"/>
@@ -159,18 +159,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
     <t>cl</t>
-  </si>
-  <si>
-    <t>init_position</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>G13</t>
@@ -178,6 +167,10 @@
   </si>
   <si>
     <t>AB7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>init pos</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -232,14 +225,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,11 +511,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8469B381-85D8-4488-B83D-28C97B323148}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DCCC56-748D-4914-82A8-BA4C46386A4E}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -539,34 +529,24 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1923,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>2</v>
@@ -6111,6 +6091,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D0BB689BD26B84BA282E6D9CF3FDF21" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5d62e768581951ef54ac8898e5ac636b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0027cc79-339f-4d1a-8619-966c060bb560" xmlns:ns4="363ad6d6-8e13-4d1a-b321-414a9449fc18" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0118aede4bb3a362b237ab746dcb4260" ns3:_="" ns4:_="">
     <xsd:import namespace="0027cc79-339f-4d1a-8619-966c060bb560"/>
@@ -6319,22 +6314,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE09FB56-7470-43BD-92C5-92AC7F73F832}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0027cc79-339f-4d1a-8619-966c060bb560"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="363ad6d6-8e13-4d1a-b321-414a9449fc18"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C77A44-1FB2-4E19-93B8-F60FE118FD4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B2DA400-0705-4C6D-B706-E3E4C70CE5D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6351,29 +6356,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE09FB56-7470-43BD-92C5-92AC7F73F832}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0027cc79-339f-4d1a-8619-966c060bb560"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="363ad6d6-8e13-4d1a-b321-414a9449fc18"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C77A44-1FB2-4E19-93B8-F60FE118FD4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdai1\GIT\conflict_based_search\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b60e98ec5e6769d/デスクトップ/centralized/mapf/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E034B-BB54-4B31-9E71-829C94C03384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9C7E034B-BB54-4B31-9E71-829C94C03384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EA38A58-7055-46DE-8403-8DBDEA11052F}"/>
   <bookViews>
-    <workbookView xWindow="-8715" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="agents" sheetId="6" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>init pos</t>
+    <t>init_pos</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -247,6 +247,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DCCC56-748D-4914-82A8-BA4C46386A4E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -554,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b60e98ec5e6769d/デスクトップ/centralized/mapf/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{9C7E034B-BB54-4B31-9E71-829C94C03384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EA38A58-7055-46DE-8403-8DBDEA11052F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9C7E034B-BB54-4B31-9E71-829C94C03384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B91D560C-AAE7-4F13-8CA6-BB7D2FB47A9C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,6 +250,14 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -559,7 +567,7 @@
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.09765625" defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3329,7 +3337,7 @@
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C12" sqref="C12:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.09765625" defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6095,12 +6103,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6109,7 +6111,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D0BB689BD26B84BA282E6D9CF3FDF21" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5d62e768581951ef54ac8898e5ac636b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0027cc79-339f-4d1a-8619-966c060bb560" xmlns:ns4="363ad6d6-8e13-4d1a-b321-414a9449fc18" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0118aede4bb3a362b237ab746dcb4260" ns3:_="" ns4:_="">
     <xsd:import namespace="0027cc79-339f-4d1a-8619-966c060bb560"/>
@@ -6318,24 +6320,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE09FB56-7470-43BD-92C5-92AC7F73F832}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0027cc79-339f-4d1a-8619-966c060bb560"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="363ad6d6-8e13-4d1a-b321-414a9449fc18"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C77A44-1FB2-4E19-93B8-F60FE118FD4F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -6343,7 +6334,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B2DA400-0705-4C6D-B706-E3E4C70CE5D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6360,4 +6351,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE09FB56-7470-43BD-92C5-92AC7F73F832}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0027cc79-339f-4d1a-8619-966c060bb560"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="363ad6d6-8e13-4d1a-b321-414a9449fc18"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7b60e98ec5e6769d/デスクトップ/centralized/mapf/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9C7E034B-BB54-4B31-9E71-829C94C03384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B91D560C-AAE7-4F13-8CA6-BB7D2FB47A9C}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{9C7E034B-BB54-4B31-9E71-829C94C03384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87CBBEBD-A196-42D0-BA75-7D18CDFB928C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,22 +38,6 @@
   </si>
   <si>
     <t>@</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>el</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>erl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eud</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cu</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -159,9 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cl</t>
-  </si>
-  <si>
     <t>G13</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -171,6 +152,26 @@
   </si>
   <si>
     <t>init_pos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>esud</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>esrl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>esl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -258,6 +259,10 @@
 </file>
 
 <file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -534,10 +539,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -545,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -553,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +572,7 @@
   <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AW13" sqref="AW13"/>
+      <selection activeCell="AM17" sqref="AL17:AM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.09765625" defaultRowHeight="28.95" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -664,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>2</v>
@@ -774,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>2</v>
@@ -884,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>2</v>
@@ -1318,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>0</v>
@@ -1544,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="AE9" s="1" t="s">
         <v>2</v>
@@ -1579,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -1654,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>2</v>
@@ -1689,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -1764,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>2</v>
@@ -1787,10 +1792,10 @@
     </row>
     <row r="12" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -1799,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>2</v>
@@ -1909,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>2</v>
@@ -2349,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>2</v>
@@ -2459,13 +2464,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>2</v>
@@ -2789,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>2</v>
@@ -2899,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>2</v>
@@ -3434,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>2</v>
@@ -3544,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>2</v>
@@ -3654,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>2</v>
@@ -4088,7 +4093,7 @@
         <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>0</v>
@@ -4293,28 +4298,28 @@
         <v>2</v>
       </c>
       <c r="W9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="AE9" s="1" t="s">
         <v>2</v>
@@ -4349,13 +4354,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>2</v>
@@ -4424,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>2</v>
@@ -4459,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>0</v>
@@ -4534,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AE11" s="1" t="s">
         <v>2</v>
@@ -4557,25 +4562,25 @@
     </row>
     <row r="12" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>2</v>
@@ -4662,7 +4667,7 @@
         <v>2</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -4679,13 +4684,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>2</v>
@@ -5119,13 +5124,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>2</v>
@@ -5229,13 +5234,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>2</v>
@@ -5559,13 +5564,13 @@
         <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>2</v>
@@ -5669,13 +5674,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>2</v>
@@ -6089,7 +6094,7 @@
         <v>2</v>
       </c>
       <c r="AI25" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ25" s="1" t="s">
         <v>0</v>
@@ -6103,12 +6108,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6321,15 +6323,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C77A44-1FB2-4E19-93B8-F60FE118FD4F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE09FB56-7470-43BD-92C5-92AC7F73F832}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="0027cc79-339f-4d1a-8619-966c060bb560"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="363ad6d6-8e13-4d1a-b321-414a9449fc18"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6354,18 +6368,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE09FB56-7470-43BD-92C5-92AC7F73F832}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C77A44-1FB2-4E19-93B8-F60FE118FD4F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0027cc79-339f-4d1a-8619-966c060bb560"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="363ad6d6-8e13-4d1a-b321-414a9449fc18"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>